--- a/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>PTRA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,38 +665,39 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,45 +710,51 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>58500</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>54000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>53100</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -767,16 +774,19 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -796,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,16 +822,17 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9700</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,23 +961,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3800</v>
+        <v>88200</v>
       </c>
       <c r="E17" s="3">
-        <v>1900</v>
+        <v>81300</v>
       </c>
       <c r="F17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,19 +991,22 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-29700</v>
       </c>
       <c r="E18" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
+        <v>-27300</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,19 +1039,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-129700</v>
       </c>
       <c r="E20" s="3">
-        <v>-31100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
+        <v>-16000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,52 +1101,58 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>8800</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-77000</v>
+        <v>-189000</v>
       </c>
       <c r="E23" s="3">
-        <v>-33000</v>
+        <v>-52200</v>
       </c>
       <c r="F23" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1122,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1151,8 +1197,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,23 +1229,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-77000</v>
+        <v>-189000</v>
       </c>
       <c r="E26" s="3">
-        <v>-33000</v>
+        <v>-52200</v>
       </c>
       <c r="F26" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,23 +1261,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-77000</v>
+        <v>-189000</v>
       </c>
       <c r="E27" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-33600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1238,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,19 +1421,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>129700</v>
       </c>
       <c r="E32" s="3">
-        <v>31100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
+        <v>16000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1383,23 +1453,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-77000</v>
+        <v>-189000</v>
       </c>
       <c r="E33" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-33600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,23 +1517,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-77000</v>
+        <v>-189000</v>
       </c>
       <c r="E35" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-33600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,23 +1616,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>634800</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,110 +1646,122 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>126700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>65000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>95400</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,23 +1774,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,22 +1806,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>277600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>277500</v>
       </c>
       <c r="F47" s="3">
         <v>277500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>277500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1733,37 +1838,43 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>59500</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,37 +1966,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,23 +2030,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1010100</v>
+      </c>
+      <c r="E54" s="3">
         <v>278000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>279900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,23 +2092,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>32700</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,23 +2122,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>12600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,23 +2154,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,23 +2186,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,13 +2218,16 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>91000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2107,23 +2250,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E62" s="3">
         <v>132300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>59000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,23 +2378,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>344200</v>
+      </c>
+      <c r="E66" s="3">
         <v>136400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,23 +2552,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-849400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-110700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,23 +2680,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>665900</v>
+      </c>
+      <c r="E76" s="3">
         <v>141600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>218600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>269100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,23 +2781,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-77000</v>
+        <v>-189000</v>
       </c>
       <c r="E81" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-33600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,22 +3019,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2834,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,23 +3161,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-277500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,23 +3335,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>279500</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,23 +3399,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>524500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>PTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,43 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,20 +714,23 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E8" s="3">
         <v>58500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,26 +743,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E9" s="3">
         <v>57200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53100</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,20 +784,23 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,20 +836,21 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E12" s="3">
         <v>10300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9700</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,26 +988,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E17" s="3">
         <v>88200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>81300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,20 +1021,23 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,20 +1073,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-129700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-16000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,13 +1106,16 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>47400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1104,20 +1141,23 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
         <v>29600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8800</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1130,32 +1170,35 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-189000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-52200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,8 +1211,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,8 +1246,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,26 +1281,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-189000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-52200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,26 +1316,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-189000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-52200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,20 +1491,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-73200</v>
+      </c>
+      <c r="E32" s="3">
         <v>129700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>16000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,26 +1526,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-189000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-52200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,26 +1596,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-189000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-52200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,31 +1631,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,26 +1703,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E41" s="3">
         <v>634800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,17 +1736,20 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E42" s="3">
         <v>126700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,23 +1765,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E43" s="3">
         <v>65000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,23 +1800,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E44" s="3">
         <v>95400</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,32 +1835,35 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,26 +1876,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>915400</v>
+      </c>
+      <c r="E46" s="3">
         <v>943000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,25 +1911,28 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>277600</v>
-      </c>
-      <c r="F47" s="3">
-        <v>277500</v>
       </c>
       <c r="G47" s="3">
         <v>277500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>277500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1841,17 +1946,20 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E48" s="3">
         <v>59500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,14 +1975,17 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2016,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,17 +2086,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,14 +2115,17 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,26 +2156,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>986100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1010100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>279900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,26 +2223,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E57" s="3">
         <v>32700</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,26 +2256,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E58" s="3">
         <v>12600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2157,26 +2291,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E59" s="3">
         <v>40800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,26 +2326,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E60" s="3">
         <v>86100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,17 +2361,20 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E61" s="3">
         <v>91000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2253,26 +2396,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E62" s="3">
         <v>167000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>132300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,26 +2536,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>279700</v>
+      </c>
+      <c r="E66" s="3">
         <v>344200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>136400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,26 +2726,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-813100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-849400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-110700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,26 +2866,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>706400</v>
+      </c>
+      <c r="E76" s="3">
         <v>665900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>141600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>218600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>269100</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2715,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,31 +2936,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,26 +2976,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-189000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-52200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,31 +3028,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2862,8 +3061,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,25 +3236,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-46100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,31 +3288,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3100,8 +3321,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,26 +3391,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-328500</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-277500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,26 +3581,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-500</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>279500</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,8 +3616,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,26 +3651,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-354300</v>
+      </c>
+      <c r="E102" s="3">
         <v>524500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>PTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,23 +717,26 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E8" s="3">
         <v>61900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -746,29 +749,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E9" s="3">
         <v>59300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>57200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,23 +793,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -822,8 +831,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,22 +849,23 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E12" s="3">
         <v>11300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10300</v>
       </c>
-      <c r="F12" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>19400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -872,8 +885,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +923,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +961,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +999,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,29 +1014,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E17" s="3">
         <v>91700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>88200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>81300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,23 +1050,26 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1088,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,23 +1106,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>73200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-129700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-16000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,22 +1142,25 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E21" s="3">
         <v>47400</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="F21" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-39600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1144,23 +1180,26 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>7100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8800</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,35 +1212,38 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E23" s="3">
         <v>36300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-189000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,8 +1256,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,14 +1276,14 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1249,8 +1294,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,29 +1332,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E26" s="3">
         <v>36300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-189000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-52200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,29 +1370,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E27" s="3">
         <v>36300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-189000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-52200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1408,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1446,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1484,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1522,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,23 +1560,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-73200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>129700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>16000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,29 +1598,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E33" s="3">
         <v>36300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-189000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-52200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1636,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,29 +1674,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E35" s="3">
         <v>36300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-189000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-52200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,34 +1712,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1755,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1773,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,29 +1789,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E41" s="3">
         <v>280500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>634800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,20 +1825,23 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E42" s="3">
         <v>447000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>126700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1768,26 +1857,29 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>81600</v>
+      </c>
+      <c r="E43" s="3">
         <v>59900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1803,26 +1895,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E44" s="3">
         <v>102700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>95400</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1838,35 +1933,38 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E45" s="3">
         <v>25300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,29 +1977,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>886400</v>
+      </c>
+      <c r="E46" s="3">
         <v>915400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>943000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,8 +2015,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1925,17 +2029,17 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>277600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>277500</v>
       </c>
       <c r="H47" s="3">
         <v>277500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>277500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1949,20 +2053,23 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E48" s="3">
         <v>62300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>59500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1978,14 +2085,17 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2129,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2167,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,20 +2205,23 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2118,14 +2237,17 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2281,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>981900</v>
+      </c>
+      <c r="E54" s="3">
         <v>986100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1010100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>279900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2319,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2337,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,29 +2353,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E57" s="3">
         <v>43700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32700</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,29 +2389,32 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>12300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2294,29 +2427,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E59" s="3">
         <v>33700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,29 +2465,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>91900</v>
+      </c>
+      <c r="E60" s="3">
         <v>89700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>86100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,20 +2503,23 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E61" s="3">
         <v>96000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>91000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2399,29 +2541,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E62" s="3">
         <v>94000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>167000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>132300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>59000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2579,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2617,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2655,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,29 +2693,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>261700</v>
+      </c>
+      <c r="E66" s="3">
         <v>279700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>344200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>136400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2731,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2749,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2785,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2823,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2861,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,29 +2899,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-858200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-813100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-849400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-110700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +2937,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2975,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3013,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,29 +3051,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>720200</v>
+      </c>
+      <c r="E76" s="3">
         <v>706400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>665900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>141600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>218600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>269100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3089,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3127,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,29 +3170,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E81" s="3">
         <v>36300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-189000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-52200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,8 +3208,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,22 +3226,23 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3055,8 +3253,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3064,8 +3262,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3300,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3338,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3376,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3414,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,28 +3452,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-46100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3274,8 +3490,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,22 +3508,23 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3315,8 +3535,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3324,8 +3544,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3582,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,29 +3620,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-328500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>300</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-63800</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-277500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3658,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3676,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3712,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3750,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3788,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,29 +3826,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="F100" s="3">
+        <v>632100</v>
       </c>
       <c r="G100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>279500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3864,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,29 +3902,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-354300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>524500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +3938,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>PTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,54 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,29 +722,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F8" s="3">
         <v>68400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>61900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>58500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>54000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,35 +760,41 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F9" s="3">
         <v>71200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>59300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>57200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>53100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,29 +810,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F10" s="3">
         <v>-2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,8 +854,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,28 +876,30 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F12" s="3">
         <v>12500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>11300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>10300</v>
       </c>
-      <c r="G12" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>9700</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -888,8 +916,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,31 +960,37 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+        <v>-10200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -964,8 +1004,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1048,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,35 +1067,37 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>101800</v>
+      </c>
+      <c r="F17" s="3">
         <v>109200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>91700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>88200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>81300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,29 +1107,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-40800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-29800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-29700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1151,14 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,29 +1173,31 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>73200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-129700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-16000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,29 +1213,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-33100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>47400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-155500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-39600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,29 +1257,35 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F22" s="3">
         <v>8000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>29600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8800</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,41 +1295,47 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-45100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>36300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-189000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-52200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-33600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1345,14 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1276,20 +1368,20 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1297,8 +1389,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,35 +1433,41 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-45100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>36300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-189000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-52200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-33600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,35 +1477,41 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-45100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>36300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-189000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-52200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-33600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1521,14 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1565,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1609,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1653,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,29 +1697,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-73200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>129700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>16000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,35 +1741,41 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-45100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>36300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-189000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-52200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-33600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1785,14 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,35 +1829,41 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-45100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>36300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-189000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-52200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-33600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,40 +1873,46 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1922,14 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1944,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,35 +1962,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F41" s="3">
         <v>170000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>280500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>634800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,26 +2002,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>470500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>551300</v>
+      </c>
+      <c r="F42" s="3">
         <v>491000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>447000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>126700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1860,32 +2040,38 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F43" s="3">
         <v>81600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>59900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>65000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1898,32 +2084,38 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>128400</v>
+      </c>
+      <c r="F44" s="3">
         <v>114600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>102700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>95400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,41 +2128,47 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F45" s="3">
         <v>29200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>25300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>21100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,35 +2178,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>788000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>835100</v>
+      </c>
+      <c r="F46" s="3">
         <v>886400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>915400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>943000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2222,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2032,21 +2242,21 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>277600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>277500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>277500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,26 +2266,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>93300</v>
+      </c>
+      <c r="F48" s="3">
         <v>86500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>62300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>59500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2088,14 +2304,20 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2132,8 +2354,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2398,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,26 +2442,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F52" s="3">
         <v>8900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>8400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,14 +2480,20 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,35 +2530,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>916700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>936900</v>
+      </c>
+      <c r="F54" s="3">
         <v>981900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>986100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1010100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>278000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>278800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>279900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2574,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2596,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,35 +2614,37 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>55600</v>
+      </c>
+      <c r="F57" s="3">
         <v>53400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>43700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>32700</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,35 +2654,41 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>12300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>12600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,35 +2698,41 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>33500</v>
+      </c>
+      <c r="F59" s="3">
         <v>38500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>33700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>40800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,35 +2742,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>89100</v>
+      </c>
+      <c r="F60" s="3">
         <v>91900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>89700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>86100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,26 +2786,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>116200</v>
+      </c>
+      <c r="F61" s="3">
         <v>111100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>96000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>91000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2544,35 +2830,41 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>56800</v>
+      </c>
+      <c r="F62" s="3">
         <v>58700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>94000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>167000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>132300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>59000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2874,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2918,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2962,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,35 +3006,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>270200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>262000</v>
+      </c>
+      <c r="F66" s="3">
         <v>261700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>279700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>344200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>136400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>60200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3050,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +3072,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +3112,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +3156,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2864,8 +3200,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,35 +3244,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-950100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-908300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-858200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-813100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-849400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-110700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-33700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3288,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3332,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3376,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,35 +3420,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>646500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>674900</v>
+      </c>
+      <c r="F76" s="3">
         <v>720200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>706400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>665900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>141600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>218600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>269100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3464,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,40 +3508,46 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,35 +3557,41 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-45100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>36300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-189000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-52200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-33600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3601,14 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,46 +3623,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="E83" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="F83" s="3">
         <v>4000</v>
       </c>
       <c r="G83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3707,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3751,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3795,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3839,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,34 +3883,40 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-54000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-25400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-46100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3493,8 +3927,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,46 +3949,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-10500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +4033,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,35 +4077,41 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-55400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-328500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-63800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-277500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +4121,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +4143,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +4183,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +4227,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4271,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,35 +4315,41 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>632100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>279500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +4359,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,35 +4403,41 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-122700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-110500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-354300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>524500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4445,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>PTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,32 +729,35 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E8" s="3">
         <v>74600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>58600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>68400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>61900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>58500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>54000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,38 +770,41 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E9" s="3">
         <v>74000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>61600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>71200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>57200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,32 +823,35 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,32 +891,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E12" s="3">
         <v>14900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>10300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9700</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,22 +983,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-10200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -992,8 +1012,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E17" s="3">
         <v>110400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>101800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>109200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>91700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>88200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>81300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,32 +1140,35 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-35800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-43200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-40800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,32 +1208,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>73200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-129700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-16000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,32 +1253,35 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-30800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-39500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-155500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-39600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1272,23 +1312,23 @@
         <v>7700</v>
       </c>
       <c r="E22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F22" s="3">
         <v>7200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8800</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,44 +1341,47 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-50100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-189000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,8 +1420,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1383,8 +1429,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-41800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-189000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-52200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-189000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-52200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,32 +1770,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-73200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>129700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>16000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-189000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-52200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-189000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-52200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,38 +2050,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E41" s="3">
         <v>52700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>170000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>280500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>634800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,29 +2095,32 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E42" s="3">
         <v>470500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>551300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>491000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>447000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>126700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,35 +2136,38 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E43" s="3">
         <v>82700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>78400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>81600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>65000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2090,35 +2183,38 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E44" s="3">
         <v>149100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>128400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>114600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>102700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>95400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,44 +2230,47 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E45" s="3">
         <v>33100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,38 +2283,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>720200</v>
+      </c>
+      <c r="E46" s="3">
         <v>788000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>835100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>886400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>915400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>943000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2248,17 +2353,17 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>277600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>277500</v>
       </c>
       <c r="K47" s="3">
         <v>277500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>277500</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2272,29 +2377,32 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E48" s="3">
         <v>107900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>93300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>86500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>62300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>59500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,14 +2418,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,29 +2565,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E52" s="3">
         <v>20700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2486,14 +2606,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>884900</v>
+      </c>
+      <c r="E54" s="3">
         <v>916700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>936900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>981900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>986100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1010100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>278800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>279900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,38 +2746,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E57" s="3">
         <v>55800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32700</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2671,27 +2805,27 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>12300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12600</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,38 +2838,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E59" s="3">
         <v>40400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E60" s="3">
         <v>96300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>89100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>91900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>89700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>86100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,29 +2932,32 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E61" s="3">
         <v>111500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>116200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>111100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>96000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>91000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2836,38 +2979,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E62" s="3">
         <v>62500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>56800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>58700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>94000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>167000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>132300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>59000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>296400</v>
+      </c>
+      <c r="E66" s="3">
         <v>270200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>262000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>261700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>279700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>344200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>136400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>60200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,38 +3421,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1015200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-950100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-908300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-858200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-813100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-849400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-110700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,38 +3609,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>588500</v>
+      </c>
+      <c r="E76" s="3">
         <v>646500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>674900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>720200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>706400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>665900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>141600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>218600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>269100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-189000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-52200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,32 +3823,33 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>3300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3859,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,37 +4103,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-64600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-54000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-46100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,32 +4171,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3986,8 +4207,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,38 +4310,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E94" s="3">
         <v>62400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-71700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-328500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-63800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-277500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,38 +4564,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>632100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>279500</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,38 +4658,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-122700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-110500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-354300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>524500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PTRA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="92">
   <si>
     <t>PTRA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,38 +733,44 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>80000</v>
+      </c>
+      <c r="F8" s="3">
         <v>96200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>74600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>58600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>68400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>61900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>58500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>54000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,44 +780,50 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100300</v>
+      </c>
+      <c r="F9" s="3">
         <v>97500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>74000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>61600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>71200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>59300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>57200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>53100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,38 +839,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F10" s="3">
         <v>-1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +892,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,38 +917,40 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F12" s="3">
         <v>18200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>11800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>12500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>11300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>10300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>9700</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +966,14 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,28 +1019,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>177900</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-10200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1015,11 +1054,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1033,8 +1072,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1125,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,44 +1147,46 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>318400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>153600</v>
+      </c>
+      <c r="F17" s="3">
         <v>154200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>110400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>101800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>109200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>91700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>88200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>81300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,38 +1196,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-238900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-73600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-58000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-35800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-43200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-40800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-29800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-29700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-27300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1249,14 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,38 +1274,40 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>73200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-129700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-16000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,38 +1323,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-231300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-70100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-54400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-30800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-39500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-33100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>47400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-155500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-39600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,38 +1376,44 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F22" s="3">
         <v>7700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>7200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>29600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,50 +1423,56 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-65100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-41800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-50100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-45100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>36300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-189000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-52200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-33600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,8 +1482,14 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,20 +1514,20 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1444,8 +1535,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,44 +1588,50 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-65100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-41800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-50100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-45100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>36300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-189000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-52200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-33600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,44 +1641,50 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-65100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-41800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-50100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-45100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>36300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-189000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-52200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-33600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1694,14 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1747,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1800,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1853,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,38 +1906,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-73200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>129700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>16000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,44 +1959,50 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-65100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-41800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-50100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-45100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>36300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-189000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-52200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-33600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +2012,14 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,44 +2065,50 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-65100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-41800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-50100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-45100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>36300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-189000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-52200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-33600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,49 +2118,55 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2176,14 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2201,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,44 +2222,46 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>73700</v>
+      </c>
+      <c r="F41" s="3">
         <v>59600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>52700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>47400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>170000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>280500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>634800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2271,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>224400</v>
+      </c>
+      <c r="F42" s="3">
         <v>348900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>470500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>551300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>491000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>447000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>126700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,41 +2318,47 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>130300</v>
+      </c>
+      <c r="F43" s="3">
         <v>102400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>82700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>78400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>81600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>59900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>65000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,41 +2371,47 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>205500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>169600</v>
+      </c>
+      <c r="F44" s="3">
         <v>164800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>149100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>128400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>114600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>102700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>95400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2233,50 +2424,56 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>67800</v>
+      </c>
+      <c r="F45" s="3">
         <v>44400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>33100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>29600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>29200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>25300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>21100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,44 +2483,50 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>654400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>665700</v>
+      </c>
+      <c r="F46" s="3">
         <v>720200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>788000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>835100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>886400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>915400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>943000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,44 +2536,50 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>277600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>277500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>277500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,35 +2589,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>127800</v>
+      </c>
+      <c r="F48" s="3">
         <v>117800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>107900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>93300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>86500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>62300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>59500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2421,14 +2636,20 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2695,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2748,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,35 +2801,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E52" s="3">
         <v>46900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>46900</v>
+      </c>
+      <c r="G52" s="3">
         <v>20700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,14 +2848,20 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,44 +2907,50 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>830700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>840500</v>
+      </c>
+      <c r="F54" s="3">
         <v>884900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>916700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>936900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>981900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>986100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1010100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>278000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>278800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>279900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2960,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2985,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,44 +3006,46 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>92200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F57" s="3">
         <v>69900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>55800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>55600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>53400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>43700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>32700</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,44 +3055,50 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>122700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>12300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>12600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,44 +3108,50 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>202300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>70400</v>
+      </c>
+      <c r="F59" s="3">
         <v>44100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>40400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>33500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>38500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>33700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>40800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,44 +3161,50 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>472200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>251000</v>
+      </c>
+      <c r="F60" s="3">
         <v>114000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>96300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>89100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>91900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>89700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>86100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,35 +3214,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>117100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>111500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>116200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>111100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>96000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>91000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,44 +3267,50 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>72600</v>
+      </c>
+      <c r="F62" s="3">
         <v>65300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>62500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>56800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>58700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>94000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>167000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>132300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>59000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3320,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3373,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3426,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,44 +3479,50 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>323600</v>
+      </c>
+      <c r="F66" s="3">
         <v>296400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>270200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>262000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>261700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>279700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>344200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>136400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>60200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3532,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3557,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3606,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3659,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3712,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,44 +3765,50 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1340200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1096200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1015200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-950100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-908300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-858200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-813100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-849400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-110700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-33700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3818,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3871,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3924,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,44 +3977,50 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>270700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>516900</v>
+      </c>
+      <c r="F76" s="3">
         <v>588500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>646500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>674900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>720200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>706400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>665900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>141600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>218600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>269100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +4030,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,49 +4083,55 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,44 +4141,50 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-65100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-41800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-50100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-45100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>36300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-189000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-52200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-33600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4194,14 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,55 +4219,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3900</v>
       </c>
       <c r="I83" s="3">
         <v>4000</v>
       </c>
       <c r="J83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4321,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4374,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4427,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4480,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,43 +4533,49 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-80900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-64600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-52100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-54000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-25400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-46100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4153,8 +4586,14 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,55 +4611,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-18400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4713,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,44 +4766,50 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>89400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>109500</v>
+      </c>
+      <c r="F94" s="3">
         <v>83800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>62400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-71700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-55400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-328500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-63800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-277500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4819,14 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4844,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4893,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4946,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4999,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,44 +5052,50 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>632100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>279500</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +5105,14 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,44 +5158,50 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F102" s="3">
         <v>6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-122700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-110500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-354300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>524500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +5209,12 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
